--- a/matlab/MeCorr/VariablesSaved/sigRxnT_1FBA.xlsx
+++ b/matlab/MeCorr/VariablesSaved/sigRxnT_1FBA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Documents\CancerMetabRes\egem\matlab\MeCorr\VariablesSaved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Documents\CancerMetabRes\egem-lf\matlab\MeCorr\VariablesSaved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{081346D2-3607-4A35-BDE9-5E38E27D69A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DCB6DF-429A-4A5C-AC3F-B43209CE91A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" xr2:uid="{5122143A-FC85-48D9-A584-C4DB914A493B}"/>
+    <workbookView xWindow="1860" yWindow="570" windowWidth="10155" windowHeight="7875" xr2:uid="{5122143A-FC85-48D9-A584-C4DB914A493B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,15 +599,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954D976B-9C4E-4B89-8665-59AF55220E0B}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
